--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.582854105485</v>
+        <v>23.7195445</v>
       </c>
       <c r="H2">
-        <v>23.582854105485</v>
+        <v>47.439089</v>
       </c>
       <c r="I2">
-        <v>0.223012603397711</v>
+        <v>0.205848174769845</v>
       </c>
       <c r="J2">
-        <v>0.223012603397711</v>
+        <v>0.1719138126598697</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N2">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O2">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P2">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q2">
-        <v>116.0311781528303</v>
+        <v>131.6667289883822</v>
       </c>
       <c r="R2">
-        <v>116.0311781528303</v>
+        <v>526.6669159535289</v>
       </c>
       <c r="S2">
-        <v>0.09915693201040268</v>
+        <v>0.0944414679083635</v>
       </c>
       <c r="T2">
-        <v>0.09915693201040268</v>
+        <v>0.06333509598392374</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.582854105485</v>
+        <v>23.7195445</v>
       </c>
       <c r="H3">
-        <v>23.582854105485</v>
+        <v>47.439089</v>
       </c>
       <c r="I3">
-        <v>0.223012603397711</v>
+        <v>0.205848174769845</v>
       </c>
       <c r="J3">
-        <v>0.223012603397711</v>
+        <v>0.1719138126598697</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N3">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P3">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q3">
-        <v>29.68367111399701</v>
+        <v>31.48074549721149</v>
       </c>
       <c r="R3">
-        <v>29.68367111399701</v>
+        <v>188.884472983269</v>
       </c>
       <c r="S3">
-        <v>0.02536681782712692</v>
+        <v>0.02258040310144404</v>
       </c>
       <c r="T3">
-        <v>0.02536681782712692</v>
+        <v>0.02271457701991625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.582854105485</v>
+        <v>23.7195445</v>
       </c>
       <c r="H4">
-        <v>23.582854105485</v>
+        <v>47.439089</v>
       </c>
       <c r="I4">
-        <v>0.223012603397711</v>
+        <v>0.205848174769845</v>
       </c>
       <c r="J4">
-        <v>0.223012603397711</v>
+        <v>0.1719138126598697</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N4">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O4">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P4">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q4">
-        <v>5.787235484589702</v>
+        <v>5.936622475638</v>
       </c>
       <c r="R4">
-        <v>5.787235484589702</v>
+        <v>35.61973485382799</v>
       </c>
       <c r="S4">
-        <v>0.004945606212132161</v>
+        <v>0.004258200574470915</v>
       </c>
       <c r="T4">
-        <v>0.004945606212132161</v>
+        <v>0.004283503021648257</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.582854105485</v>
+        <v>23.7195445</v>
       </c>
       <c r="H5">
-        <v>23.582854105485</v>
+        <v>47.439089</v>
       </c>
       <c r="I5">
-        <v>0.223012603397711</v>
+        <v>0.205848174769845</v>
       </c>
       <c r="J5">
-        <v>0.223012603397711</v>
+        <v>0.1719138126598697</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N5">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O5">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P5">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q5">
-        <v>8.223958323377115</v>
+        <v>8.468351777390001</v>
       </c>
       <c r="R5">
-        <v>8.223958323377115</v>
+        <v>50.81011066434</v>
       </c>
       <c r="S5">
-        <v>0.007027959978596483</v>
+        <v>0.00607415084103501</v>
       </c>
       <c r="T5">
-        <v>0.007027959978596483</v>
+        <v>0.006110243758246076</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.582854105485</v>
+        <v>23.7195445</v>
       </c>
       <c r="H6">
-        <v>23.582854105485</v>
+        <v>47.439089</v>
       </c>
       <c r="I6">
-        <v>0.223012603397711</v>
+        <v>0.205848174769845</v>
       </c>
       <c r="J6">
-        <v>0.223012603397711</v>
+        <v>0.1719138126598697</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N6">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O6">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P6">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q6">
-        <v>87.02762320242714</v>
+        <v>94.92275493063035</v>
       </c>
       <c r="R6">
-        <v>87.02762320242714</v>
+        <v>569.536529583782</v>
       </c>
       <c r="S6">
-        <v>0.074371322038494</v>
+        <v>0.06808587395184384</v>
       </c>
       <c r="T6">
-        <v>0.074371322038494</v>
+        <v>0.06849044372235161</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.582854105485</v>
+        <v>23.7195445</v>
       </c>
       <c r="H7">
-        <v>23.582854105485</v>
+        <v>47.439089</v>
       </c>
       <c r="I7">
-        <v>0.223012603397711</v>
+        <v>0.205848174769845</v>
       </c>
       <c r="J7">
-        <v>0.223012603397711</v>
+        <v>0.1719138126598697</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N7">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O7">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P7">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q7">
-        <v>14.21059099176695</v>
+        <v>14.5105499455975</v>
       </c>
       <c r="R7">
-        <v>14.21059099176695</v>
+        <v>58.04219978239</v>
       </c>
       <c r="S7">
-        <v>0.01214396533095881</v>
+        <v>0.01040807839268773</v>
       </c>
       <c r="T7">
-        <v>0.01214396533095881</v>
+        <v>0.006979949153783782</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.1436686007192</v>
+        <v>11.028824</v>
       </c>
       <c r="H8">
-        <v>10.1436686007192</v>
+        <v>33.086472</v>
       </c>
       <c r="I8">
-        <v>0.095924180022123</v>
+        <v>0.09571276928432844</v>
       </c>
       <c r="J8">
-        <v>0.095924180022123</v>
+        <v>0.1199015762925807</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N8">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O8">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P8">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q8">
-        <v>49.90837043170159</v>
+        <v>61.220786961932</v>
       </c>
       <c r="R8">
-        <v>49.90837043170159</v>
+        <v>367.324721771592</v>
       </c>
       <c r="S8">
-        <v>0.04265026842292314</v>
+        <v>0.04391223987724507</v>
       </c>
       <c r="T8">
-        <v>0.04265026842292314</v>
+        <v>0.04417316866876186</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.1436686007192</v>
+        <v>11.028824</v>
       </c>
       <c r="H9">
-        <v>10.1436686007192</v>
+        <v>33.086472</v>
       </c>
       <c r="I9">
-        <v>0.095924180022123</v>
+        <v>0.09571276928432844</v>
       </c>
       <c r="J9">
-        <v>0.095924180022123</v>
+        <v>0.1199015762925807</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N9">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P9">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q9">
-        <v>12.76780669915163</v>
+        <v>14.637532414568</v>
       </c>
       <c r="R9">
-        <v>12.76780669915163</v>
+        <v>131.737791731112</v>
       </c>
       <c r="S9">
-        <v>0.01091100306783243</v>
+        <v>0.01049915995034729</v>
       </c>
       <c r="T9">
-        <v>0.01091100306783243</v>
+        <v>0.01584231974946446</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.1436686007192</v>
+        <v>11.028824</v>
       </c>
       <c r="H10">
-        <v>10.1436686007192</v>
+        <v>33.086472</v>
       </c>
       <c r="I10">
-        <v>0.095924180022123</v>
+        <v>0.09571276928432844</v>
       </c>
       <c r="J10">
-        <v>0.095924180022123</v>
+        <v>0.1199015762925807</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N10">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O10">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P10">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q10">
-        <v>2.4892576024692</v>
+        <v>2.760338186016</v>
       </c>
       <c r="R10">
-        <v>2.4892576024692</v>
+        <v>24.843043674144</v>
       </c>
       <c r="S10">
-        <v>0.002127248475571871</v>
+        <v>0.001979926077102308</v>
       </c>
       <c r="T10">
-        <v>0.002127248475571871</v>
+        <v>0.002987536349774349</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.1436686007192</v>
+        <v>11.028824</v>
       </c>
       <c r="H11">
-        <v>10.1436686007192</v>
+        <v>33.086472</v>
       </c>
       <c r="I11">
-        <v>0.095924180022123</v>
+        <v>0.09571276928432844</v>
       </c>
       <c r="J11">
-        <v>0.095924180022123</v>
+        <v>0.1199015762925807</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N11">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O11">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P11">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q11">
-        <v>3.537362672275588</v>
+        <v>3.937510744480001</v>
       </c>
       <c r="R11">
-        <v>3.537362672275588</v>
+        <v>35.43759670032001</v>
       </c>
       <c r="S11">
-        <v>0.003022929143483933</v>
+        <v>0.002824284445058678</v>
       </c>
       <c r="T11">
-        <v>0.003022929143483933</v>
+        <v>0.004261599733088963</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.1436686007192</v>
+        <v>11.028824</v>
       </c>
       <c r="H12">
-        <v>10.1436686007192</v>
+        <v>33.086472</v>
       </c>
       <c r="I12">
-        <v>0.095924180022123</v>
+        <v>0.09571276928432844</v>
       </c>
       <c r="J12">
-        <v>0.095924180022123</v>
+        <v>0.1199015762925807</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N12">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O12">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P12">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q12">
-        <v>37.43310139328561</v>
+        <v>44.13602283657067</v>
       </c>
       <c r="R12">
-        <v>37.43310139328561</v>
+        <v>397.224205529136</v>
       </c>
       <c r="S12">
-        <v>0.03198925968762985</v>
+        <v>0.03165773780778422</v>
       </c>
       <c r="T12">
-        <v>0.03198925968762985</v>
+        <v>0.04776877457505903</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.1436686007192</v>
+        <v>11.028824</v>
       </c>
       <c r="H13">
-        <v>10.1436686007192</v>
+        <v>33.086472</v>
       </c>
       <c r="I13">
-        <v>0.095924180022123</v>
+        <v>0.09571276928432844</v>
       </c>
       <c r="J13">
-        <v>0.095924180022123</v>
+        <v>0.1199015762925807</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N13">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O13">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P13">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q13">
-        <v>6.11238677880482</v>
+        <v>6.746938226120001</v>
       </c>
       <c r="R13">
-        <v>6.11238677880482</v>
+        <v>40.48162935672001</v>
       </c>
       <c r="S13">
-        <v>0.005223471224681776</v>
+        <v>0.004839421126790856</v>
       </c>
       <c r="T13">
-        <v>0.005223471224681776</v>
+        <v>0.004868177216432019</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.11373910453818</v>
+        <v>5.35583</v>
       </c>
       <c r="H14">
-        <v>4.11373910453818</v>
+        <v>16.06749</v>
       </c>
       <c r="I14">
-        <v>0.03890180820771187</v>
+        <v>0.04648014340568721</v>
       </c>
       <c r="J14">
-        <v>0.03890180820771187</v>
+        <v>0.05822673925661452</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N14">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O14">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P14">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q14">
-        <v>20.24021319802494</v>
+        <v>29.730107891315</v>
       </c>
       <c r="R14">
-        <v>20.24021319802494</v>
+        <v>178.38064734789</v>
       </c>
       <c r="S14">
-        <v>0.0172967083149768</v>
+        <v>0.02132471165572553</v>
       </c>
       <c r="T14">
-        <v>0.0172967083149768</v>
+        <v>0.02145142419093956</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.11373910453818</v>
+        <v>5.35583</v>
       </c>
       <c r="H15">
-        <v>4.11373910453818</v>
+        <v>16.06749</v>
       </c>
       <c r="I15">
-        <v>0.03890180820771187</v>
+        <v>0.04648014340568721</v>
       </c>
       <c r="J15">
-        <v>0.03890180820771187</v>
+        <v>0.05822673925661452</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N15">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P15">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q15">
-        <v>5.177951662750558</v>
+        <v>7.108295066809999</v>
       </c>
       <c r="R15">
-        <v>5.177951662750558</v>
+        <v>63.97465560128999</v>
       </c>
       <c r="S15">
-        <v>0.004424929653823262</v>
+        <v>0.005098613944412256</v>
       </c>
       <c r="T15">
-        <v>0.004424929653823262</v>
+        <v>0.007693365256692305</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.11373910453818</v>
+        <v>5.35583</v>
       </c>
       <c r="H16">
-        <v>4.11373910453818</v>
+        <v>16.06749</v>
       </c>
       <c r="I16">
-        <v>0.03890180820771187</v>
+        <v>0.04648014340568721</v>
       </c>
       <c r="J16">
-        <v>0.03890180820771187</v>
+        <v>0.05822673925661452</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N16">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O16">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P16">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q16">
-        <v>1.009512114760971</v>
+        <v>1.34047855572</v>
       </c>
       <c r="R16">
-        <v>1.009512114760971</v>
+        <v>12.06430700148</v>
       </c>
       <c r="S16">
-        <v>0.0008627002304086299</v>
+        <v>0.000961493943645021</v>
       </c>
       <c r="T16">
-        <v>0.0008627002304086299</v>
+        <v>0.001450810785285172</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.11373910453818</v>
+        <v>5.35583</v>
       </c>
       <c r="H17">
-        <v>4.11373910453818</v>
+        <v>16.06749</v>
       </c>
       <c r="I17">
-        <v>0.03890180820771187</v>
+        <v>0.04648014340568721</v>
       </c>
       <c r="J17">
-        <v>0.03890180820771187</v>
+        <v>0.05822673925661452</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N17">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O17">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P17">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q17">
-        <v>1.434568470705167</v>
+        <v>1.9121384266</v>
       </c>
       <c r="R17">
-        <v>1.434568470705167</v>
+        <v>17.2092458394</v>
       </c>
       <c r="S17">
-        <v>0.001225941256294223</v>
+        <v>0.001371532210449511</v>
       </c>
       <c r="T17">
-        <v>0.001225941256294223</v>
+        <v>0.002069522888248998</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.11373910453818</v>
+        <v>5.35583</v>
       </c>
       <c r="H18">
-        <v>4.11373910453818</v>
+        <v>16.06749</v>
       </c>
       <c r="I18">
-        <v>0.03890180820771187</v>
+        <v>0.04648014340568721</v>
       </c>
       <c r="J18">
-        <v>0.03890180820771187</v>
+        <v>0.05822673925661452</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N18">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O18">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P18">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q18">
-        <v>15.18089944251368</v>
+        <v>21.43338538984667</v>
       </c>
       <c r="R18">
-        <v>15.18089944251368</v>
+        <v>192.90046850862</v>
       </c>
       <c r="S18">
-        <v>0.01297316322941578</v>
+        <v>0.01537366648366725</v>
       </c>
       <c r="T18">
-        <v>0.01297316322941578</v>
+        <v>0.0231975264028457</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.11373910453818</v>
+        <v>5.35583</v>
       </c>
       <c r="H19">
-        <v>4.11373910453818</v>
+        <v>16.06749</v>
       </c>
       <c r="I19">
-        <v>0.03890180820771187</v>
+        <v>0.04648014340568721</v>
       </c>
       <c r="J19">
-        <v>0.03890180820771187</v>
+        <v>0.05822673925661452</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N19">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O19">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P19">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q19">
-        <v>2.478862973919391</v>
+        <v>3.27645578165</v>
       </c>
       <c r="R19">
-        <v>2.478862973919391</v>
+        <v>19.6587346899</v>
       </c>
       <c r="S19">
-        <v>0.002118365522793186</v>
+        <v>0.002350125167787633</v>
       </c>
       <c r="T19">
-        <v>0.002118365522793186</v>
+        <v>0.002364089732602778</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.20150495504923</v>
+        <v>7.581957666666667</v>
       </c>
       <c r="H20">
-        <v>5.20150495504923</v>
+        <v>22.745873</v>
       </c>
       <c r="I20">
-        <v>0.04918832794465809</v>
+        <v>0.0657994147765176</v>
       </c>
       <c r="J20">
-        <v>0.04918832794465809</v>
+        <v>0.08242843258872844</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N20">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O20">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P20">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q20">
-        <v>25.59218427941567</v>
+        <v>42.08729915949216</v>
       </c>
       <c r="R20">
-        <v>25.59218427941567</v>
+        <v>252.523794956953</v>
       </c>
       <c r="S20">
-        <v>0.02187034999549229</v>
+        <v>0.03018823618889775</v>
       </c>
       <c r="T20">
-        <v>0.02187034999549229</v>
+        <v>0.03036761624349783</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.20150495504923</v>
+        <v>7.581957666666667</v>
       </c>
       <c r="H21">
-        <v>5.20150495504923</v>
+        <v>22.745873</v>
       </c>
       <c r="I21">
-        <v>0.04918832794465809</v>
+        <v>0.0657994147765176</v>
       </c>
       <c r="J21">
-        <v>0.04918832794465809</v>
+        <v>0.08242843258872844</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N21">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P21">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q21">
-        <v>6.547119432316556</v>
+        <v>10.06282728890367</v>
       </c>
       <c r="R21">
-        <v>6.547119432316556</v>
+        <v>90.56544560013299</v>
       </c>
       <c r="S21">
-        <v>0.00559498133819788</v>
+        <v>0.007217830865656692</v>
       </c>
       <c r="T21">
-        <v>0.00559498133819788</v>
+        <v>0.01089107938273716</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.20150495504923</v>
+        <v>7.581957666666667</v>
       </c>
       <c r="H22">
-        <v>5.20150495504923</v>
+        <v>22.745873</v>
       </c>
       <c r="I22">
-        <v>0.04918832794465809</v>
+        <v>0.0657994147765176</v>
       </c>
       <c r="J22">
-        <v>0.04918832794465809</v>
+        <v>0.08242843258872844</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N22">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O22">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P22">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q22">
-        <v>1.276449996869918</v>
+        <v>1.897642692644</v>
       </c>
       <c r="R22">
-        <v>1.276449996869918</v>
+        <v>17.078784233796</v>
       </c>
       <c r="S22">
-        <v>0.001090817723039916</v>
+        <v>0.001361134759219941</v>
       </c>
       <c r="T22">
-        <v>0.001090817723039916</v>
+        <v>0.002053834038118386</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.20150495504923</v>
+        <v>7.581957666666667</v>
       </c>
       <c r="H23">
-        <v>5.20150495504923</v>
+        <v>22.745873</v>
       </c>
       <c r="I23">
-        <v>0.04918832794465809</v>
+        <v>0.0657994147765176</v>
       </c>
       <c r="J23">
-        <v>0.04918832794465809</v>
+        <v>0.08242843258872844</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N23">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O23">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P23">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q23">
-        <v>1.813900886543464</v>
+        <v>2.706910526153334</v>
       </c>
       <c r="R23">
-        <v>1.813900886543464</v>
+        <v>24.36219473538</v>
       </c>
       <c r="S23">
-        <v>0.001550107908442471</v>
+        <v>0.001941603665183165</v>
       </c>
       <c r="T23">
-        <v>0.001550107908442471</v>
+        <v>0.002929711161276894</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.20150495504923</v>
+        <v>7.581957666666667</v>
       </c>
       <c r="H24">
-        <v>5.20150495504923</v>
+        <v>22.745873</v>
       </c>
       <c r="I24">
-        <v>0.04918832794465809</v>
+        <v>0.0657994147765176</v>
       </c>
       <c r="J24">
-        <v>0.04918832794465809</v>
+        <v>0.08242843258872844</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N24">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O24">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P24">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q24">
-        <v>19.19507330574958</v>
+        <v>30.34207969244156</v>
       </c>
       <c r="R24">
-        <v>19.19507330574958</v>
+        <v>273.078717231974</v>
       </c>
       <c r="S24">
-        <v>0.01640356160312314</v>
+        <v>0.02176366472808459</v>
       </c>
       <c r="T24">
-        <v>0.01640356160312314</v>
+        <v>0.03283947831760127</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.20150495504923</v>
+        <v>7.581957666666667</v>
       </c>
       <c r="H25">
-        <v>5.20150495504923</v>
+        <v>22.745873</v>
       </c>
       <c r="I25">
-        <v>0.04918832794465809</v>
+        <v>0.0657994147765176</v>
       </c>
       <c r="J25">
-        <v>0.04918832794465809</v>
+        <v>0.08242843258872844</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N25">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O25">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P25">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q25">
-        <v>3.134330523660489</v>
+        <v>4.638300512371667</v>
       </c>
       <c r="R25">
-        <v>3.134330523660489</v>
+        <v>27.82980307423</v>
       </c>
       <c r="S25">
-        <v>0.002678509376362408</v>
+        <v>0.003326944569475455</v>
       </c>
       <c r="T25">
-        <v>0.002678509376362408</v>
+        <v>0.003346713445496885</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>19.9874775948692</v>
+        <v>21.52362933333333</v>
       </c>
       <c r="H26">
-        <v>19.9874775948692</v>
+        <v>64.570888</v>
       </c>
       <c r="I26">
-        <v>0.1890127205912903</v>
+        <v>0.1867911001701303</v>
       </c>
       <c r="J26">
-        <v>0.1890127205912903</v>
+        <v>0.2339974855527565</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N26">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O26">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P26">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q26">
-        <v>98.34138663888733</v>
+        <v>119.4772467185613</v>
       </c>
       <c r="R26">
-        <v>98.34138663888733</v>
+        <v>716.8634803113679</v>
       </c>
       <c r="S26">
-        <v>0.08403974124883104</v>
+        <v>0.08569823712067959</v>
       </c>
       <c r="T26">
-        <v>0.08403974124883104</v>
+        <v>0.08620746046044835</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>19.9874775948692</v>
+        <v>21.52362933333333</v>
       </c>
       <c r="H27">
-        <v>19.9874775948692</v>
+        <v>64.570888</v>
       </c>
       <c r="I27">
-        <v>0.1890127205912903</v>
+        <v>0.1867911001701303</v>
       </c>
       <c r="J27">
-        <v>0.1890127205912903</v>
+        <v>0.2339974855527565</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N27">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P27">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q27">
-        <v>25.1581809678621</v>
+        <v>28.56631151660533</v>
       </c>
       <c r="R27">
-        <v>25.1581809678621</v>
+        <v>257.096803649448</v>
       </c>
       <c r="S27">
-        <v>0.02149946315678998</v>
+        <v>0.02048994771180078</v>
       </c>
       <c r="T27">
-        <v>0.02149946315678998</v>
+        <v>0.03091755005498495</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>19.9874775948692</v>
+        <v>21.52362933333333</v>
       </c>
       <c r="H28">
-        <v>19.9874775948692</v>
+        <v>64.570888</v>
       </c>
       <c r="I28">
-        <v>0.1890127205912903</v>
+        <v>0.1867911001701303</v>
       </c>
       <c r="J28">
-        <v>0.1890127205912903</v>
+        <v>0.2339974855527565</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N28">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O28">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P28">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q28">
-        <v>4.904929618233322</v>
+        <v>5.387020044064</v>
       </c>
       <c r="R28">
-        <v>4.904929618233322</v>
+        <v>48.483180396576</v>
       </c>
       <c r="S28">
-        <v>0.004191612809708495</v>
+        <v>0.003863983593441226</v>
       </c>
       <c r="T28">
-        <v>0.004191612809708495</v>
+        <v>0.005830415374513436</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>19.9874775948692</v>
+        <v>21.52362933333333</v>
       </c>
       <c r="H29">
-        <v>19.9874775948692</v>
+        <v>64.570888</v>
       </c>
       <c r="I29">
-        <v>0.1890127205912903</v>
+        <v>0.1867911001701303</v>
       </c>
       <c r="J29">
-        <v>0.1890127205912903</v>
+        <v>0.2339974855527565</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N29">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O29">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P29">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q29">
-        <v>6.970156453260118</v>
+        <v>7.684366144586668</v>
       </c>
       <c r="R29">
-        <v>6.970156453260118</v>
+        <v>69.15929530128001</v>
       </c>
       <c r="S29">
-        <v>0.005956496698046537</v>
+        <v>0.005511816266842413</v>
       </c>
       <c r="T29">
-        <v>0.005956496698046537</v>
+        <v>0.008316851644566919</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>19.9874775948692</v>
+        <v>21.52362933333333</v>
       </c>
       <c r="H30">
-        <v>19.9874775948692</v>
+        <v>64.570888</v>
       </c>
       <c r="I30">
-        <v>0.1890127205912903</v>
+        <v>0.1867911001701303</v>
       </c>
       <c r="J30">
-        <v>0.1890127205912903</v>
+        <v>0.2339974855527565</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N30">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O30">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P30">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q30">
-        <v>73.75963321117523</v>
+        <v>86.13496740739379</v>
       </c>
       <c r="R30">
-        <v>73.75963321117523</v>
+        <v>775.214706666544</v>
       </c>
       <c r="S30">
-        <v>0.06303287661010741</v>
+        <v>0.06178259931490431</v>
       </c>
       <c r="T30">
-        <v>0.06303287661010741</v>
+        <v>0.09322457205420341</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>19.9874775948692</v>
+        <v>21.52362933333333</v>
       </c>
       <c r="H31">
-        <v>19.9874775948692</v>
+        <v>64.570888</v>
       </c>
       <c r="I31">
-        <v>0.1890127205912903</v>
+        <v>0.1867911001701303</v>
       </c>
       <c r="J31">
-        <v>0.1890127205912903</v>
+        <v>0.2339974855527565</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N31">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O31">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P31">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q31">
-        <v>12.04408371384234</v>
+        <v>13.16718786281333</v>
       </c>
       <c r="R31">
-        <v>12.04408371384234</v>
+        <v>79.00312717688</v>
       </c>
       <c r="S31">
-        <v>0.01029253006780689</v>
+        <v>0.009444516162461992</v>
       </c>
       <c r="T31">
-        <v>0.01029253006780689</v>
+        <v>0.009500635964039432</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>42.7174880938649</v>
+        <v>46.0185595</v>
       </c>
       <c r="H32">
-        <v>42.7174880938649</v>
+        <v>92.037119</v>
       </c>
       <c r="I32">
-        <v>0.4039603598365057</v>
+        <v>0.3993683975934915</v>
       </c>
       <c r="J32">
-        <v>0.4039603598365057</v>
+        <v>0.3335319536494501</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N32">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O32">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P32">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q32">
-        <v>210.1764463745644</v>
+        <v>255.4481264225898</v>
       </c>
       <c r="R32">
-        <v>210.1764463745644</v>
+        <v>1021.792505690359</v>
       </c>
       <c r="S32">
-        <v>0.1796107902644991</v>
+        <v>0.1832269717577573</v>
       </c>
       <c r="T32">
-        <v>0.1796107902644991</v>
+        <v>0.1228771439086617</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>42.7174880938649</v>
+        <v>46.0185595</v>
       </c>
       <c r="H33">
-        <v>42.7174880938649</v>
+        <v>92.037119</v>
       </c>
       <c r="I33">
-        <v>0.4039603598365057</v>
+        <v>0.3993683975934915</v>
       </c>
       <c r="J33">
-        <v>0.4039603598365057</v>
+        <v>0.3335319536494501</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N33">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O33">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P33">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q33">
-        <v>53.76838026994574</v>
+        <v>61.0761542983165</v>
       </c>
       <c r="R33">
-        <v>53.76838026994574</v>
+        <v>366.456925789899</v>
       </c>
       <c r="S33">
-        <v>0.04594892262245325</v>
+        <v>0.04380849824741732</v>
       </c>
       <c r="T33">
-        <v>0.04594892262245325</v>
+        <v>0.04406881060082535</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>42.7174880938649</v>
+        <v>46.0185595</v>
       </c>
       <c r="H34">
-        <v>42.7174880938649</v>
+        <v>92.037119</v>
       </c>
       <c r="I34">
-        <v>0.4039603598365057</v>
+        <v>0.3993683975934915</v>
       </c>
       <c r="J34">
-        <v>0.4039603598365057</v>
+        <v>0.3335319536494501</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N34">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O34">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P34">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q34">
-        <v>10.48287717014941</v>
+        <v>11.517709145898</v>
       </c>
       <c r="R34">
-        <v>10.48287717014941</v>
+        <v>69.106254875388</v>
       </c>
       <c r="S34">
-        <v>0.008958367530016786</v>
+        <v>0.008261383623923471</v>
       </c>
       <c r="T34">
-        <v>0.008958367530016786</v>
+        <v>0.00831047319100711</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>42.7174880938649</v>
+        <v>46.0185595</v>
       </c>
       <c r="H35">
-        <v>42.7174880938649</v>
+        <v>92.037119</v>
       </c>
       <c r="I35">
-        <v>0.4039603598365057</v>
+        <v>0.3993683975934915</v>
       </c>
       <c r="J35">
-        <v>0.4039603598365057</v>
+        <v>0.3335319536494501</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N35">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O35">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P35">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q35">
-        <v>14.89670589454203</v>
+        <v>16.42954611269001</v>
       </c>
       <c r="R35">
-        <v>14.89670589454203</v>
+        <v>98.57727667614002</v>
       </c>
       <c r="S35">
-        <v>0.01273029953740962</v>
+        <v>0.01178452950014047</v>
       </c>
       <c r="T35">
-        <v>0.01273029953740962</v>
+        <v>0.01185455378151763</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>42.7174880938649</v>
+        <v>46.0185595</v>
       </c>
       <c r="H36">
-        <v>42.7174880938649</v>
+        <v>92.037119</v>
       </c>
       <c r="I36">
-        <v>0.4039603598365057</v>
+        <v>0.3993683975934915</v>
       </c>
       <c r="J36">
-        <v>0.4039603598365057</v>
+        <v>0.3335319536494501</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N36">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O36">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P36">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q36">
-        <v>157.6400142814939</v>
+        <v>184.1607222128204</v>
       </c>
       <c r="R36">
-        <v>157.6400142814939</v>
+        <v>1104.964333276922</v>
       </c>
       <c r="S36">
-        <v>0.1347146553803023</v>
+        <v>0.1320941825658763</v>
       </c>
       <c r="T36">
-        <v>0.1347146553803023</v>
+        <v>0.1328790930035962</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>42.7174880938649</v>
+        <v>46.0185595</v>
       </c>
       <c r="H37">
-        <v>42.7174880938649</v>
+        <v>92.037119</v>
       </c>
       <c r="I37">
-        <v>0.4039603598365057</v>
+        <v>0.3993683975934915</v>
       </c>
       <c r="J37">
-        <v>0.4039603598365057</v>
+        <v>0.3335319536494501</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N37">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O37">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P37">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q37">
-        <v>25.74076694798363</v>
+        <v>28.1520838669225</v>
       </c>
       <c r="R37">
-        <v>25.74076694798363</v>
+        <v>112.60833546769</v>
       </c>
       <c r="S37">
-        <v>0.02199732450182464</v>
+        <v>0.02019283189837666</v>
       </c>
       <c r="T37">
-        <v>0.02199732450182464</v>
+        <v>0.01354187916384202</v>
       </c>
     </row>
   </sheetData>
